--- a/02_MasterWifoMannheim/99_Backup/Course129.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course129.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F5928115965B8756F3BFFB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{045A8838-0AED-48C5-BF08-3B66076683BC}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 690 Innovation Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The lecture “Innovation Management“ provides an overview of theoretical foundations and fundamental conceptions in the field of innovation management. The lecture further analyses innovative activity at the industry as well as at the firm level. determinants that affect the development and the spread of innovations will be scrutinized. At the industry level, special emphasis will be put on the prediction of market development and future trends. alternative implementations of innovation processes will be covered. instance, a business venture's incentive systems, organizational structures that are supposed to foster innovative activity, collaboration in innovation processes, commercialization strategies, and the design of internal interfaces between different departments.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>The aim of the lectures on innovation management is to provide the students with central concepts from the area of innovation management and findings from theoretical and empirical research into innovation. theoretical and empirical research into innovation in order to analyze and to solve innovation management-related problems. competences needed to manage innovation from its early stages to the introduction of products or services in the market and the strategic positioning of the firm within its industry.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration:</t>
-  </si>
-  <si>
-    <t>Further Information on registration: Website of the chair / “Student Portal”</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 10</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (120 Min., 100%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Karin Hoisl</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring Semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Management (MAN)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 690 Innovation Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The lecture “Innovation Management“ provides an overview of theoretical foundations and fundamental conceptions in the field of innovation management. The lecture further analyses innovative activity at the industry as well as at the firm level. determinants that affect the development and the spread of innovations will be scrutinized. At the industry level, special emphasis will be put on the prediction of market development and future trends. alternative implementations of innovation processes will be covered. instance, a business venture's incentive systems, organizational structures that are supposed to foster innovative activity, collaboration in innovation processes, commercialization strategies, and the design of internal interfaces between different departments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The aim of the lectures on innovation management is to provide the students with central concepts from the area of innovation management and findings from theoretical and empirical research into innovation. theoretical and empirical research into innovation in order to analyze and to solve innovation management-related problems. competences needed to manage innovation from its early stages to the introduction of products or services in the market and the strategic positioning of the firm within its industry.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management (MAN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on registration: Website of the chair / “Student Portal”</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (120 Min., 100%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Karin Hoisl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
